--- a/Fourth Semester/static and probability/lab1_STATICS AND PROBA.xlsx
+++ b/Fourth Semester/static and probability/lab1_STATICS AND PROBA.xlsx
@@ -1,39 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER-WIN10\Documents\GitHub\BCE\Fourth Semester\static and probability\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6437411C-0146-4927-9350-88D19BF36136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
   <si>
     <t>20-30</t>
   </si>
   <si>
-    <t xml:space="preserve"> =AVERAGE(A2:A14)</t>
-  </si>
-  <si>
     <t>AM</t>
   </si>
   <si>
@@ -52,9 +59,6 @@
     <t>Q6</t>
   </si>
   <si>
-    <t>P5</t>
-  </si>
-  <si>
     <t>P47</t>
   </si>
   <si>
@@ -179,12 +183,45 @@
   </si>
   <si>
     <t xml:space="preserve"> =C4+F4*(B12-G3)/B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =AVERAGE(A17:A29)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =MEDIAN(A17:A29)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =MODE(A17:A29)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =QUARTILE(A17:A29,1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =QUARTILE(A17:A29,2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =PERCENTILE(A17:A29,0.6)</t>
+  </si>
+  <si>
+    <t>p05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =PERCENTILE(A17:A29,0.05)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =PERCENTILE(A17:A29,0.47)</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =G6/4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -497,11 +534,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A16:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,133 +546,165 @@
     <col min="1" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <f>AVERAGE(A17:A29)</f>
+        <v>56.692307692307693</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
-        <f>AVERAGE(A2:A14)</f>
-        <v>56.692307692307693</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D18" s="1">
+        <f>MEDIAN(A17:A29)</f>
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1">
-        <f>MEDIAN(A2:A14)</f>
+      <c r="D19">
+        <f>MODE(A17:A29)</f>
+        <v>52</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <f>QUARTILE(A17:A29,1)</f>
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <f>QUARTILE(A17:A29,2)</f>
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <f>MODE(A2:A14)</f>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <f>QUARTILE(A2:A14,1)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>52</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C22" t="s">
         <v>6</v>
       </c>
-      <c r="D6">
-        <f>QUARTILE(A2:A14,2)</f>
+      <c r="D22">
+        <f>PERCENTILE(A17:A29,0.6)</f>
+        <v>55.8</v>
+      </c>
+      <c r="E22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23">
+        <f>PERCENTILE(A17:A29,0.05)</f>
+        <v>25.8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
         <v>7</v>
       </c>
-      <c r="D7">
-        <f>PERCENTILE(A2:A14,0.6)</f>
-        <v>55.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>54</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>55</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="D24">
+        <f>PERCENTILE(A17:A29,0.47)</f>
+        <v>53.28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>95</v>
       </c>
     </row>
@@ -646,11 +715,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,28 +729,29 @@
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -693,17 +763,17 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <f>SUMPRODUCT(A2:A11,B2:B11)/C11</f>
         <v>5.2195121951219514</v>
       </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -715,18 +785,18 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
         <f>MAX(B2:B11)</f>
         <v>10</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <f>A7</f>
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -738,17 +808,17 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
         <f>0.25*(C11+1)</f>
         <v>10.5</v>
       </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -760,17 +830,17 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
         <f>0.5*(C11+1)</f>
         <v>21</v>
       </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -782,17 +852,17 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6">
+        <v>21</v>
+      </c>
+      <c r="G6">
         <f>0.75*(C11+1)</f>
         <v>31.5</v>
       </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -804,17 +874,17 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7">
+        <v>23</v>
+      </c>
+      <c r="G7">
         <f>0.5*(C11+1)</f>
         <v>21</v>
       </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -826,14 +896,14 @@
         <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8">
+        <v>24</v>
+      </c>
+      <c r="G8">
         <f>0.26*(C11+1)</f>
         <v>10.92</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -845,10 +915,10 @@
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -860,7 +930,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -878,50 +948,58 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="1" max="1" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
         <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -944,12 +1022,12 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>14</v>
@@ -999,7 +1077,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>20</v>
@@ -1024,7 +1102,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -1049,68 +1127,68 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <f>SUMPRODUCT(B2:B6,E2:E6)/G6</f>
         <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <f>B4</f>
         <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11">
         <f>C4+F4*(B4-B3)/(2*B4-B3-B5)</f>
         <v>25.416666666666668</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12">
         <f>G6/2</f>
         <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2"/>
       <c r="F12">
@@ -1118,32 +1196,39 @@
         <v>26.226415094339622</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <f>G6/4</f>
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
